--- a/documents/throttle.xlsx
+++ b/documents/throttle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38370" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="38370" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>output</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -173,52 +198,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$A$2:$A$7</c:f>
@@ -283,13 +262,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1651872672"/>
-        <c:axId val="1651872128"/>
+        <c:axId val="191066960"/>
+        <c:axId val="191069680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1651872672"/>
+        <c:axId val="191066960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -344,14 +324,15 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1651872128"/>
+        <c:crossAx val="191069680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1651872128"/>
+        <c:axId val="191069680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -369,8 +350,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1600"/>
+                  <a:t>input</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -406,7 +443,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1651872672"/>
+        <c:crossAx val="191066960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1312,7 +1349,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
